--- a/NeuralModels/TestsModelos.xlsx
+++ b/NeuralModels/TestsModelos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\tfg\NeuralModels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asier\Desktop\tfg\NeuralModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E0BFD3-39F5-4749-997C-7E2CAD31AADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819EED12-72BC-4FCD-84F7-3ADC8D38BB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{766F4303-4845-4F9B-9147-86D4948759DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{766F4303-4845-4F9B-9147-86D4948759DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="285">
   <si>
     <t>PM25=3.80</t>
   </si>
@@ -866,13 +866,37 @@
   </si>
   <si>
     <t>10.20</t>
+  </si>
+  <si>
+    <t>CAPA PERCEPTRON MAS LSTM</t>
+  </si>
+  <si>
+    <t>2 PERCEPTRON: HYPERBOLIC+LINEAR</t>
+  </si>
+  <si>
+    <t>9 neuronas lstm hyperbolic+linea, solo 1 perceptron lineal</t>
+  </si>
+  <si>
+    <t>2PERCEPTRON DE 9 MAS LSTM DE 3</t>
+  </si>
+  <si>
+    <t>Levenberg no se puede usar con LSTM</t>
+  </si>
+  <si>
+    <t>LSTM no merece: Quiza porque dataset pequeño</t>
+  </si>
+  <si>
+    <t>lstm 1 neurona</t>
+  </si>
+  <si>
+    <t>FINAL: 1 MODELO, 2 CAPAS PERCEPTRON (HYPERBOLIC 9 Y LINEAR 5), MINKOWSKI 1.5, QUASI NEWTON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,8 +911,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,6 +963,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -938,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -947,6 +997,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1261,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE48B9DB-6A06-4637-90D3-E86AD94CDF9E}">
-  <dimension ref="A1:T97"/>
+  <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,6 +1332,9 @@
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
+      <c r="E1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1357,6 +1414,9 @@
       <c r="L9" t="s">
         <v>85</v>
       </c>
+      <c r="P9" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -1374,6 +1434,9 @@
       <c r="L10" t="s">
         <v>86</v>
       </c>
+      <c r="P10" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -2062,7 +2125,7 @@
       <c r="G69" t="s">
         <v>197</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="1" t="s">
         <v>201</v>
       </c>
       <c r="N69" t="s">
@@ -2091,7 +2154,7 @@
       <c r="G70" t="s">
         <v>185</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="1" t="s">
         <v>203</v>
       </c>
       <c r="J70" t="s">
@@ -2120,7 +2183,7 @@
       <c r="G71" t="s">
         <v>198</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2146,7 +2209,7 @@
       <c r="G72" t="s">
         <v>199</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2172,7 +2235,7 @@
       <c r="G73" t="s">
         <v>200</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2226,7 +2289,7 @@
       <c r="G77" t="s">
         <v>223</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="10" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2252,7 +2315,7 @@
       <c r="G78" t="s">
         <v>185</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="10" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2278,7 +2341,7 @@
       <c r="G79" t="s">
         <v>97</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="10" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2304,7 +2367,7 @@
       <c r="G80" t="s">
         <v>221</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="10" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2330,7 +2393,7 @@
       <c r="G81" t="s">
         <v>224</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="10" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2384,7 +2447,7 @@
       <c r="G85" t="s">
         <v>232</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="9" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2410,7 +2473,7 @@
       <c r="G86" t="s">
         <v>238</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="9" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2436,7 +2499,7 @@
       <c r="G87" t="s">
         <v>77</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2462,7 +2525,7 @@
       <c r="G88" t="s">
         <v>245</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="9" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2488,7 +2551,7 @@
       <c r="G89" t="s">
         <v>251</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="9" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2650,7 +2713,296 @@
         <v>260</v>
       </c>
     </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103">
+        <v>10.863899999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104">
+        <v>3.0828600000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105">
+        <v>3.4955599999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106">
+        <v>13.252599999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107">
+        <v>12.0449</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>171</v>
+      </c>
+      <c r="D110" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111">
+        <v>10.8652</v>
+      </c>
+      <c r="D111">
+        <v>10.8652</v>
+      </c>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112">
+        <v>3.0827399999999998</v>
+      </c>
+      <c r="D112">
+        <v>3.08264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113">
+        <v>3.52393</v>
+      </c>
+      <c r="D113">
+        <v>3.5237400000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114">
+        <v>13.257199999999999</v>
+      </c>
+      <c r="D114">
+        <v>13.257999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115">
+        <v>12.4145</v>
+      </c>
+      <c r="D115">
+        <v>12.4163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C119" s="11">
+        <v>2</v>
+      </c>
+      <c r="D119" s="11">
+        <v>3</v>
+      </c>
+      <c r="E119" s="11">
+        <v>4</v>
+      </c>
+      <c r="F119" s="11">
+        <v>5</v>
+      </c>
+      <c r="G119" s="11">
+        <v>6</v>
+      </c>
+      <c r="H119" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" s="11">
+        <v>4.2081600000000003</v>
+      </c>
+      <c r="C120" s="11">
+        <v>6.8915300000000004</v>
+      </c>
+      <c r="D120" s="11">
+        <v>8.2644500000000001</v>
+      </c>
+      <c r="E120" s="11">
+        <v>8.5550899999999999</v>
+      </c>
+      <c r="F120" s="11">
+        <v>8.6333699999999993</v>
+      </c>
+      <c r="G120" s="11">
+        <v>8.74404</v>
+      </c>
+      <c r="H120" s="11">
+        <v>9.0086700000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" s="11">
+        <v>1.92903</v>
+      </c>
+      <c r="C121" s="11">
+        <v>2.2614399999999999</v>
+      </c>
+      <c r="D121" s="11">
+        <v>2.3832599999999999</v>
+      </c>
+      <c r="E121" s="11">
+        <v>2.4218000000000002</v>
+      </c>
+      <c r="F121" s="11">
+        <v>2.4723000000000002</v>
+      </c>
+      <c r="G121" s="11">
+        <v>2.4698099999999998</v>
+      </c>
+      <c r="H121" s="11">
+        <v>2.5834600000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B122" s="11">
+        <v>1.66174</v>
+      </c>
+      <c r="C122" s="11">
+        <v>1.90655</v>
+      </c>
+      <c r="D122" s="11">
+        <v>2.0264600000000002</v>
+      </c>
+      <c r="E122" s="11">
+        <v>2.0968900000000001</v>
+      </c>
+      <c r="F122" s="11">
+        <v>1.9468000000000001</v>
+      </c>
+      <c r="G122" s="11">
+        <v>2.0851700000000002</v>
+      </c>
+      <c r="H122" s="11">
+        <v>2.2168800000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="11">
+        <v>9.9336900000000004</v>
+      </c>
+      <c r="C123" s="11">
+        <v>10.6335</v>
+      </c>
+      <c r="D123" s="11">
+        <v>12.806699999999999</v>
+      </c>
+      <c r="E123" s="11">
+        <v>12.453799999999999</v>
+      </c>
+      <c r="F123" s="11">
+        <v>12</v>
+      </c>
+      <c r="G123" s="11">
+        <v>12.459199999999999</v>
+      </c>
+      <c r="H123" s="11">
+        <v>12.710699999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="11">
+        <v>4.1913600000000004</v>
+      </c>
+      <c r="C124" s="11">
+        <v>4.8174700000000001</v>
+      </c>
+      <c r="D124" s="11">
+        <v>5.5362200000000001</v>
+      </c>
+      <c r="E124" s="11">
+        <v>5.7087000000000003</v>
+      </c>
+      <c r="F124" s="11">
+        <v>5.7556599999999998</v>
+      </c>
+      <c r="G124" s="11">
+        <v>6.0146800000000002</v>
+      </c>
+      <c r="H124" s="11">
+        <v>6.1825299999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>